--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo2-Rnf43.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo2-Rnf43.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Rnf43</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.597878666666667</v>
+        <v>1.597878666666666</v>
       </c>
       <c r="H2">
-        <v>4.793636</v>
+        <v>4.793635999999999</v>
       </c>
       <c r="I2">
-        <v>0.98224549682877</v>
+        <v>0.8992131381376172</v>
       </c>
       <c r="J2">
-        <v>0.9822454968287699</v>
+        <v>0.8992131381376171</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,16 +552,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07557800000000001</v>
+        <v>0.07557799999999999</v>
       </c>
       <c r="N2">
         <v>0.226734</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8607417137086825</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.8607417137086824</v>
       </c>
       <c r="Q2">
         <v>0.1207644738693333</v>
@@ -567,15 +570,15 @@
         <v>1.086880264824</v>
       </c>
       <c r="S2">
-        <v>0.98224549682877</v>
+        <v>0.7739902575099348</v>
       </c>
       <c r="T2">
-        <v>0.9822454968287699</v>
+        <v>0.7739902575099347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -584,25 +587,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G3">
-        <v>0.02888233333333333</v>
+        <v>1.597878666666666</v>
       </c>
       <c r="H3">
-        <v>0.086647</v>
+        <v>4.793635999999999</v>
       </c>
       <c r="I3">
-        <v>0.01775450317123003</v>
+        <v>0.8992131381376172</v>
       </c>
       <c r="J3">
-        <v>0.01775450317123003</v>
+        <v>0.8992131381376171</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -611,28 +614,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07557800000000001</v>
+        <v>0.01222766666666667</v>
       </c>
       <c r="N3">
+        <v>0.036683</v>
+      </c>
+      <c r="O3">
+        <v>0.1392582862913176</v>
+      </c>
+      <c r="P3">
+        <v>0.1392582862913176</v>
+      </c>
+      <c r="Q3">
+        <v>0.01953832770977778</v>
+      </c>
+      <c r="R3">
+        <v>0.175844949388</v>
+      </c>
+      <c r="S3">
+        <v>0.1252228806276824</v>
+      </c>
+      <c r="T3">
+        <v>0.1252228806276824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.1790956666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.537287</v>
+      </c>
+      <c r="I4">
+        <v>0.1007868618623829</v>
+      </c>
+      <c r="J4">
+        <v>0.1007868618623829</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.07557799999999999</v>
+      </c>
+      <c r="N4">
         <v>0.226734</v>
       </c>
-      <c r="O3">
+      <c r="O4">
+        <v>0.8607417137086825</v>
+      </c>
+      <c r="P4">
+        <v>0.8607417137086824</v>
+      </c>
+      <c r="Q4">
+        <v>0.01353569229533333</v>
+      </c>
+      <c r="R4">
+        <v>0.121821230658</v>
+      </c>
+      <c r="S4">
+        <v>0.08675145619874775</v>
+      </c>
+      <c r="T4">
+        <v>0.08675145619874773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.1790956666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.537287</v>
+      </c>
+      <c r="I5">
+        <v>0.1007868618623829</v>
+      </c>
+      <c r="J5">
+        <v>0.1007868618623829</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.002182868988666667</v>
-      </c>
-      <c r="R3">
-        <v>0.019645820898</v>
-      </c>
-      <c r="S3">
-        <v>0.01775450317123003</v>
-      </c>
-      <c r="T3">
-        <v>0.01775450317123003</v>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.01222766666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.036683</v>
+      </c>
+      <c r="O5">
+        <v>0.1392582862913176</v>
+      </c>
+      <c r="P5">
+        <v>0.1392582862913176</v>
+      </c>
+      <c r="Q5">
+        <v>0.002189922113444444</v>
+      </c>
+      <c r="R5">
+        <v>0.019709299021</v>
+      </c>
+      <c r="S5">
+        <v>0.0140354056636352</v>
+      </c>
+      <c r="T5">
+        <v>0.0140354056636352</v>
       </c>
     </row>
   </sheetData>
